--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
-  <si>
-    <t>hyperqueue</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+  <si>
+    <t>damask</t>
   </si>
   <si>
     <t>server</t>
@@ -52,10 +52,7 @@
     <t>roundContinuousDecimals</t>
   </si>
   <si>
-    <t>largeLinearYieldingDev</t>
-  </si>
-  <si>
-    <t>smallLinearYieldingDev</t>
+    <t>linearYieldingDev</t>
   </si>
   <si>
     <t>largeLinearHardeningDev</t>
@@ -64,19 +61,13 @@
     <t>smallLinearHardeningDev</t>
   </si>
   <si>
-    <t>largeNonlinearYieldingDev</t>
-  </si>
-  <si>
-    <t>smallNonlinearYieldingDev</t>
-  </si>
-  <si>
     <t>largeNonlinearHardeningDev</t>
   </si>
   <si>
     <t>smallNonlinearHardeningDev</t>
   </si>
   <si>
-    <t>no</t>
+    <t>v2</t>
   </si>
   <si>
     <t>mahti</t>
@@ -94,7 +85,7 @@
     <t>auto</t>
   </si>
   <si>
-    <t>D;D;D;E</t>
+    <t>E;D;D;D</t>
   </si>
   <si>
     <t>discrete</t>
@@ -103,7 +94,7 @@
     <t>general</t>
   </si>
   <si>
-    <t>Specify the array job option</t>
+    <t>Specify the damask version</t>
   </si>
   <si>
     <t>Specify the server</t>
@@ -137,9 +128,6 @@
     <t>If the searchingSpace is continuous, how many decimal digits do you want to round the parameters?</t>
   </si>
   <si>
-    <t xml:space="preserve">Define the large yielding deviation percentage </t>
-  </si>
-  <si>
     <t xml:space="preserve">Define the small yielding deviation percentage </t>
   </si>
   <si>
@@ -149,9 +137,6 @@
     <t xml:space="preserve">Define the small hardening deviation percentage </t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>puhti</t>
   </si>
   <si>
@@ -170,6 +155,9 @@
     <t>for nonlinear loading</t>
   </si>
   <si>
+    <t>v3</t>
+  </si>
+  <si>
     <t>DB</t>
   </si>
   <si>
@@ -185,18 +173,12 @@
     <t>specific</t>
   </si>
   <si>
-    <t>If no, it submits the normal array jobs. Adequate for 1-200 jobs in an array submission</t>
-  </si>
-  <si>
     <t>PSO</t>
   </si>
   <si>
     <t>* Note: if you choose universal initialSimsType</t>
   </si>
   <si>
-    <t>If yes, this project code submit HyperQueue job. Useful for large number of jobs</t>
-  </si>
-  <si>
     <t>please limit to 200 because CSC</t>
   </si>
   <si>
@@ -206,18 +188,10 @@
     <t>D for DAMASK</t>
   </si>
   <si>
-    <t>Array job maximum size is 200 jobs. You can have at most 400 jobs waiting in queue</t>
-  </si>
-  <si>
     <t>has a limit on the number of batch jobs</t>
   </si>
   <si>
     <t>E for experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Hyperqueue, it can pack multiple jobs into a single job.
-Thus, when you submit a hyperqueue task array, all the subtasks will be run within a single Slurm allocation. So even if you would be running thousands of jobs, they will appear as a single job from the point of view of Slurm. So in this sense there is no restriction on how many jobs you are allowed to run with Hyperqueue
- </t>
   </si>
   <si>
     <t>Otherwise, use manualParams and run initial sims in small portions. Each portion should be 25 simulation x 7 loading = 175 simulations &lt; 200</t>
@@ -299,10 +273,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -335,29 +309,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:T2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:T2"/>
-  <tableColumns count="20">
-    <tableColumn name="hyperqueue" id="1"/>
-    <tableColumn name="server" id="2"/>
-    <tableColumn name="material1" id="3"/>
-    <tableColumn name="CPLaw" id="4"/>
-    <tableColumn name="optimizerName" id="5"/>
-    <tableColumn name="initialSims" id="6"/>
-    <tableColumn name="method" id="7"/>
-    <tableColumn name="curveIndices" id="8"/>
-    <tableColumn name="expTypes" id="9"/>
-    <tableColumn name="searchingSpace" id="10"/>
-    <tableColumn name="searchingType" id="11"/>
-    <tableColumn name="roundContinuousDecimals" id="12"/>
-    <tableColumn name="largeLinearYieldingDev" id="13"/>
-    <tableColumn name="smallLinearYieldingDev" id="14"/>
-    <tableColumn name="largeLinearHardeningDev" id="15"/>
-    <tableColumn name="smallLinearHardeningDev" id="16"/>
-    <tableColumn name="largeNonlinearYieldingDev" id="17"/>
-    <tableColumn name="smallNonlinearYieldingDev" id="18"/>
-    <tableColumn name="largeNonlinearHardeningDev" id="19"/>
-    <tableColumn name="smallNonlinearHardeningDev" id="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:Q2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:Q2"/>
+  <tableColumns count="16">
+    <tableColumn name="server" id="1"/>
+    <tableColumn name="material1" id="2"/>
+    <tableColumn name="CPLaw" id="3"/>
+    <tableColumn name="optimizerName" id="4"/>
+    <tableColumn name="initialSims" id="5"/>
+    <tableColumn name="method" id="6"/>
+    <tableColumn name="curveIndices" id="7"/>
+    <tableColumn name="expTypes" id="8"/>
+    <tableColumn name="searchingSpace" id="9"/>
+    <tableColumn name="searchingType" id="10"/>
+    <tableColumn name="roundContinuousDecimals" id="11"/>
+    <tableColumn name="linearYieldingDev" id="12"/>
+    <tableColumn name="largeLinearHardeningDev" id="13"/>
+    <tableColumn name="smallLinearHardeningDev" id="14"/>
+    <tableColumn name="largeNonlinearHardeningDev" id="15"/>
+    <tableColumn name="smallNonlinearHardeningDev" id="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -651,13 +621,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="52.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="25.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="25.576428571428572" customWidth="1" bestFit="1"/>
@@ -669,14 +639,11 @@
     <col min="10" max="10" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="12" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -731,75 +698,57 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="6">
         <v>2000</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H2" s="6">
-        <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="8">
         <v>3</v>
       </c>
       <c r="M2" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N2" s="8">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="O2" s="8">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P2" s="8">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="R2" s="8">
-        <v>1</v>
-      </c>
-      <c r="S2" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="T2" s="8">
         <v>3</v>
       </c>
     </row>
@@ -821,155 +770,134 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="N4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="O4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="P4" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8"/>
@@ -977,125 +905,102 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11">
         <v>4</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>57</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="110.25">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
@@ -1115,9 +1020,6 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
@@ -1137,9 +1039,6 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
@@ -1159,9 +1058,6 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
@@ -1181,9 +1077,6 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
@@ -1203,9 +1096,6 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
@@ -1225,11 +1115,8 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1247,11 +1134,8 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1269,11 +1153,8 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1291,9 +1172,6 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
@@ -1313,9 +1191,6 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>damask</t>
   </si>
@@ -37,10 +37,7 @@
     <t>method</t>
   </si>
   <si>
-    <t>curveIndices</t>
-  </si>
-  <si>
-    <t>expTypes</t>
+    <t>curveIndex</t>
   </si>
   <si>
     <t>searchingSpace</t>
@@ -76,16 +73,13 @@
     <t>RVE_1_40_D</t>
   </si>
   <si>
-    <t>PH</t>
+    <t>DB</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
     <t>auto</t>
-  </si>
-  <si>
-    <t>E;D;D;D</t>
   </si>
   <si>
     <t>discrete</t>
@@ -143,7 +137,10 @@
     <t>512grains512</t>
   </si>
   <si>
-    <t>Separated by semicolon ;</t>
+    <t>PH</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>continuous</t>
@@ -158,18 +155,12 @@
     <t>v3</t>
   </si>
   <si>
-    <t>DB</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
     <t xml:space="preserve">manual </t>
   </si>
   <si>
-    <t>1;2;3;4</t>
-  </si>
-  <si>
     <t>specific</t>
   </si>
   <si>
@@ -182,22 +173,10 @@
     <t>please limit to 200 because CSC</t>
   </si>
   <si>
-    <t># Choose which target curve index to optimize, separate by a semicolon ; . Type "all" to optimize all of them # Example: curveIndices = 1;3 or 1;2 or 1;2;3</t>
-  </si>
-  <si>
-    <t>D for DAMASK</t>
-  </si>
-  <si>
     <t>has a limit on the number of batch jobs</t>
   </si>
   <si>
-    <t>E for experimental</t>
-  </si>
-  <si>
     <t>Otherwise, use manualParams and run initial sims in small portions. Each portion should be 25 simulation x 7 loading = 175 simulations &lt; 200</t>
-  </si>
-  <si>
-    <t>The 4th curve is the actual experimental curve (not DAMASK simulated curve)</t>
   </si>
 </sst>
 </file>
@@ -267,12 +246,12 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -282,14 +261,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,25 +288,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:Q2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="B1:Q2"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:P2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:P2"/>
+  <tableColumns count="15">
     <tableColumn name="server" id="1"/>
     <tableColumn name="material1" id="2"/>
     <tableColumn name="CPLaw" id="3"/>
     <tableColumn name="optimizerName" id="4"/>
     <tableColumn name="initialSims" id="5"/>
     <tableColumn name="method" id="6"/>
-    <tableColumn name="curveIndices" id="7"/>
-    <tableColumn name="expTypes" id="8"/>
-    <tableColumn name="searchingSpace" id="9"/>
-    <tableColumn name="searchingType" id="10"/>
-    <tableColumn name="roundContinuousDecimals" id="11"/>
-    <tableColumn name="linearYieldingDev" id="12"/>
-    <tableColumn name="largeLinearHardeningDev" id="13"/>
-    <tableColumn name="smallLinearHardeningDev" id="14"/>
-    <tableColumn name="largeNonlinearHardeningDev" id="15"/>
-    <tableColumn name="smallNonlinearHardeningDev" id="16"/>
+    <tableColumn name="curveIndex" id="7"/>
+    <tableColumn name="searchingSpace" id="8"/>
+    <tableColumn name="searchingType" id="9"/>
+    <tableColumn name="roundContinuousDecimals" id="10"/>
+    <tableColumn name="linearYieldingDev" id="11"/>
+    <tableColumn name="largeLinearHardeningDev" id="12"/>
+    <tableColumn name="smallLinearHardeningDev" id="13"/>
+    <tableColumn name="largeNonlinearHardeningDev" id="14"/>
+    <tableColumn name="smallNonlinearHardeningDev" id="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -621,29 +599,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -677,7 +654,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -695,60 +672,54 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="6">
         <v>2000</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7">
         <v>3</v>
       </c>
-      <c r="M2" s="8">
+      <c r="L2" s="7">
         <v>0.5</v>
       </c>
-      <c r="N2" s="8">
+      <c r="M2" s="7">
         <v>2.2</v>
       </c>
-      <c r="O2" s="8">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
-      <c r="P2" s="8">
+      <c r="O2" s="7">
         <v>3.2</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="P2" s="7">
         <v>3</v>
       </c>
     </row>
@@ -760,151 +731,147 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>39</v>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="9"/>
@@ -912,24 +879,21 @@
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="9"/>
@@ -938,23 +902,20 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10"/>
@@ -963,21 +924,18 @@
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="11"/>
@@ -986,21 +944,20 @@
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="7"/>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
@@ -1011,15 +968,14 @@
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
@@ -1030,15 +986,14 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
@@ -1049,15 +1004,14 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
@@ -1068,15 +1022,14 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
@@ -1087,15 +1040,14 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
@@ -1106,15 +1058,14 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
@@ -1125,15 +1076,14 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
@@ -1144,15 +1094,14 @@
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
@@ -1163,15 +1112,14 @@
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
@@ -1182,15 +1130,14 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>damask</t>
   </si>
@@ -43,9 +43,6 @@
     <t>searchingSpace</t>
   </si>
   <si>
-    <t>searchingType</t>
-  </si>
-  <si>
     <t>roundContinuousDecimals</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>discrete</t>
-  </si>
-  <si>
-    <t>general</t>
   </si>
   <si>
     <t>Specify the damask version</t>
@@ -116,9 +110,6 @@
     <t>Specify the searching space type</t>
   </si>
   <si>
-    <t>Specify the search type</t>
-  </si>
-  <si>
     <t>If the searchingSpace is continuous, how many decimal digits do you want to round the parameters?</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>PH</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>continuous</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">manual </t>
-  </si>
-  <si>
-    <t>specific</t>
   </si>
   <si>
     <t>PSO</t>
@@ -226,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,9 +234,6 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -259,9 +241,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -288,9 +267,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:P2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="B1:P2"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:O2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:O2"/>
+  <tableColumns count="14">
     <tableColumn name="server" id="1"/>
     <tableColumn name="material1" id="2"/>
     <tableColumn name="CPLaw" id="3"/>
@@ -299,13 +278,12 @@
     <tableColumn name="method" id="6"/>
     <tableColumn name="curveIndex" id="7"/>
     <tableColumn name="searchingSpace" id="8"/>
-    <tableColumn name="searchingType" id="9"/>
-    <tableColumn name="roundContinuousDecimals" id="10"/>
-    <tableColumn name="linearYieldingDev" id="11"/>
-    <tableColumn name="largeLinearHardeningDev" id="12"/>
-    <tableColumn name="smallLinearHardeningDev" id="13"/>
-    <tableColumn name="largeNonlinearHardeningDev" id="14"/>
-    <tableColumn name="smallNonlinearHardeningDev" id="15"/>
+    <tableColumn name="roundContinuousDecimals" id="9"/>
+    <tableColumn name="linearYieldingDev" id="10"/>
+    <tableColumn name="largeLinearHardeningDev" id="11"/>
+    <tableColumn name="smallLinearHardeningDev" id="12"/>
+    <tableColumn name="largeNonlinearHardeningDev" id="13"/>
+    <tableColumn name="smallNonlinearHardeningDev" id="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -599,28 +577,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="15" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="15" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="15" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="25.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="13" width="29.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -651,7 +628,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -669,57 +646,51 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="6">
         <v>2000</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
       </c>
       <c r="K2" s="7">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L2" s="7">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="M2" s="7">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N2" s="7">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O2" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="P2" s="7">
         <v>3</v>
       </c>
     </row>
@@ -733,231 +704,209 @@
       <c r="G3" s="5"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
@@ -969,13 +918,12 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
@@ -987,13 +935,12 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
@@ -1005,13 +952,12 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
@@ -1023,13 +969,12 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
@@ -1041,13 +986,12 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
@@ -1059,13 +1003,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
@@ -1077,13 +1020,12 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
@@ -1095,13 +1037,12 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
@@ -1113,13 +1054,12 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
@@ -1131,13 +1071,12 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -49,16 +49,16 @@
     <t>linearYieldingDev</t>
   </si>
   <si>
-    <t>largeLinearHardeningDev</t>
-  </si>
-  <si>
-    <t>smallLinearHardeningDev</t>
-  </si>
-  <si>
-    <t>largeNonlinearHardeningDev</t>
-  </si>
-  <si>
-    <t>smallNonlinearHardeningDev</t>
+    <t>firstLinearHardeningDev</t>
+  </si>
+  <si>
+    <t>secondLinearHardeningDev</t>
+  </si>
+  <si>
+    <t>firstNonlinearHardeningDev</t>
+  </si>
+  <si>
+    <t>secondNonlinearHardeningDev</t>
   </si>
   <si>
     <t>v2</t>
@@ -70,13 +70,13 @@
     <t>RVE_1_40_D</t>
   </si>
   <si>
-    <t>DB</t>
+    <t>PH</t>
   </si>
   <si>
     <t>GA</t>
   </si>
   <si>
-    <t>auto</t>
+    <t xml:space="preserve">manual </t>
   </si>
   <si>
     <t>discrete</t>
@@ -128,7 +128,7 @@
     <t>512grains512</t>
   </si>
   <si>
-    <t>PH</t>
+    <t>auto</t>
   </si>
   <si>
     <t>continuous</t>
@@ -143,10 +143,10 @@
     <t>v3</t>
   </si>
   <si>
+    <t>DB</t>
+  </si>
+  <si>
     <t>BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual </t>
   </si>
   <si>
     <t>PSO</t>
@@ -280,10 +280,10 @@
     <tableColumn name="searchingSpace" id="8"/>
     <tableColumn name="roundContinuousDecimals" id="9"/>
     <tableColumn name="linearYieldingDev" id="10"/>
-    <tableColumn name="largeLinearHardeningDev" id="11"/>
-    <tableColumn name="smallLinearHardeningDev" id="12"/>
-    <tableColumn name="largeNonlinearHardeningDev" id="13"/>
-    <tableColumn name="smallNonlinearHardeningDev" id="14"/>
+    <tableColumn name="firstLinearHardeningDev" id="11"/>
+    <tableColumn name="secondLinearHardeningDev" id="12"/>
+    <tableColumn name="firstNonlinearHardeningDev" id="13"/>
+    <tableColumn name="secondNonlinearHardeningDev" id="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -682,16 +682,16 @@
         <v>0.5</v>
       </c>
       <c r="L2" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
         <v>2.2</v>
       </c>
-      <c r="M2" s="7">
+      <c r="O2" s="7">
         <v>2</v>
-      </c>
-      <c r="N2" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="O2" s="7">
-        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -769,14 +769,14 @@
         <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
@@ -810,14 +810,14 @@
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
-  <si>
-    <t>damask</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>server</t>
   </si>
@@ -49,19 +46,10 @@
     <t>linearYieldingDev</t>
   </si>
   <si>
-    <t>firstLinearHardeningDev</t>
-  </si>
-  <si>
-    <t>secondLinearHardeningDev</t>
-  </si>
-  <si>
-    <t>firstNonlinearHardeningDev</t>
-  </si>
-  <si>
-    <t>secondNonlinearHardeningDev</t>
-  </si>
-  <si>
-    <t>v2</t>
+    <t>linearHardeningDev</t>
+  </si>
+  <si>
+    <t>nonlinearHardeningDev</t>
   </si>
   <si>
     <t>mahti</t>
@@ -80,9 +68,6 @@
   </si>
   <si>
     <t>discrete</t>
-  </si>
-  <si>
-    <t>Specify the damask version</t>
   </si>
   <si>
     <t>Specify the server</t>
@@ -116,10 +101,7 @@
     <t xml:space="preserve">Define the small yielding deviation percentage </t>
   </si>
   <si>
-    <t xml:space="preserve">Define the large hardening deviation percentage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Define the small hardening deviation percentage </t>
+    <t xml:space="preserve">Define the hardening deviation percentage </t>
   </si>
   <si>
     <t>puhti</t>
@@ -138,9 +120,6 @@
   </si>
   <si>
     <t>for nonlinear loading</t>
-  </si>
-  <si>
-    <t>v3</t>
   </si>
   <si>
     <t>DB</t>
@@ -267,9 +246,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:O2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="B1:O2"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
+  <tableColumns count="12">
     <tableColumn name="server" id="1"/>
     <tableColumn name="material1" id="2"/>
     <tableColumn name="CPLaw" id="3"/>
@@ -280,10 +259,8 @@
     <tableColumn name="searchingSpace" id="8"/>
     <tableColumn name="roundContinuousDecimals" id="9"/>
     <tableColumn name="linearYieldingDev" id="10"/>
-    <tableColumn name="firstLinearHardeningDev" id="11"/>
-    <tableColumn name="secondLinearHardeningDev" id="12"/>
-    <tableColumn name="firstNonlinearHardeningDev" id="13"/>
-    <tableColumn name="secondNonlinearHardeningDev" id="14"/>
+    <tableColumn name="linearHardeningDev" id="11"/>
+    <tableColumn name="nonlinearHardeningDev" id="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -577,27 +554,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="25.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="13" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="13" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -613,19 +587,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -637,446 +611,360 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="7">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.5</v>
-      </c>
       <c r="L2" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="O2" s="7">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+  <si>
+    <t>optimizeStrategy</t>
+  </si>
   <si>
     <t>server</t>
   </si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>discrete</t>
+  </si>
+  <si>
+    <t>Specify the optimization strategy</t>
   </si>
   <si>
     <t>Specify the server</t>
@@ -104,6 +110,9 @@
     <t xml:space="preserve">Define the hardening deviation percentage </t>
   </si>
   <si>
+    <t>SOO</t>
+  </si>
+  <si>
     <t>puhti</t>
   </si>
   <si>
@@ -120,6 +129,9 @@
   </si>
   <si>
     <t>for nonlinear loading</t>
+  </si>
+  <si>
+    <t>MOO</t>
   </si>
   <si>
     <t>DB</t>
@@ -190,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,6 +216,9 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,11 +231,26 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,8 +276,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:M2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:M2"/>
   <tableColumns count="12">
     <tableColumn name="server" id="1"/>
     <tableColumn name="material1" id="2"/>
@@ -554,24 +584,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="13" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="13" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="13" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="19" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -587,19 +618,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -611,360 +642,390 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7">
         <v>2000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7">
-        <v>3</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -55,6 +55,9 @@
     <t>nonlinearHardeningDev</t>
   </si>
   <si>
+    <t>SOO</t>
+  </si>
+  <si>
     <t>mahti</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Define the hardening deviation percentage </t>
-  </si>
-  <si>
-    <t>SOO</t>
   </si>
   <si>
     <t>puhti</t>
@@ -160,7 +160,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -216,7 +222,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -231,19 +237,19 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -597,12 +603,12 @@
     <col min="5" max="5" style="17" width="31.290714285714284" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="17" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="19" width="24.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="19" width="24.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="19" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -627,7 +633,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -651,28 +657,28 @@
         <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7">
         <v>2000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="J2" s="8">
         <v>3</v>
@@ -704,60 +710,60 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7" t="s">
-        <v>31</v>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6" t="s">
@@ -782,65 +788,65 @@
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
+      <c r="I6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -848,17 +854,17 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9"/>

--- a/optimize_config.xlsx
+++ b/optimize_config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>optimizeStrategy</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>optimizerName</t>
+  </si>
+  <si>
+    <t>initialSimsSpacing</t>
   </si>
   <si>
     <t>initialSims</t>
@@ -92,6 +95,9 @@
     <t>Specify the optimization algorithm</t>
   </si>
   <si>
+    <t>Specify the spacing in Latin sampling hypercube for initial simulations</t>
+  </si>
+  <si>
     <t>Specify number of initial simulations</t>
   </si>
   <si>
@@ -143,7 +149,7 @@
     <t>PSO</t>
   </si>
   <si>
-    <t>* Note: if you choose universal initialSimsType</t>
+    <t xml:space="preserve">* Note: </t>
   </si>
   <si>
     <t>please limit to 200 because CSC</t>
@@ -160,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +234,9 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -243,15 +246,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -260,6 +254,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,21 +279,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:M2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="B1:M2"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:N2" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="B1:N2"/>
+  <tableColumns count="13">
     <tableColumn name="server" id="1"/>
     <tableColumn name="material1" id="2"/>
     <tableColumn name="CPLaw" id="3"/>
     <tableColumn name="optimizerName" id="4"/>
-    <tableColumn name="initialSims" id="5"/>
-    <tableColumn name="method" id="6"/>
-    <tableColumn name="curveIndex" id="7"/>
-    <tableColumn name="searchingSpace" id="8"/>
-    <tableColumn name="roundContinuousDecimals" id="9"/>
-    <tableColumn name="linearYieldingDev" id="10"/>
-    <tableColumn name="linearHardeningDev" id="11"/>
-    <tableColumn name="nonlinearHardeningDev" id="12"/>
+    <tableColumn name="initialSimsSpacing" id="5"/>
+    <tableColumn name="initialSims" id="6"/>
+    <tableColumn name="method" id="7"/>
+    <tableColumn name="curveIndex" id="8"/>
+    <tableColumn name="searchingSpace" id="9"/>
+    <tableColumn name="roundContinuousDecimals" id="10"/>
+    <tableColumn name="linearYieldingDev" id="11"/>
+    <tableColumn name="linearHardeningDev" id="12"/>
+    <tableColumn name="nonlinearHardeningDev" id="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -590,25 +588,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="45.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="45.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="17" width="29.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
@@ -630,16 +629,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -648,48 +647,54 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7">
         <v>2000</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="7">
+        <v>500</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8">
         <v>3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>0.5</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <v>2</v>
       </c>
     </row>
@@ -699,189 +704,199 @@
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="8"/>
@@ -889,14 +904,15 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="8"/>
@@ -904,14 +920,15 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="6"/>
@@ -919,14 +936,15 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="6"/>
@@ -934,14 +952,15 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="6"/>
@@ -949,14 +968,15 @@
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="6"/>
@@ -964,7 +984,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -972,6 +992,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7"/>
@@ -979,14 +1000,15 @@
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="6"/>
@@ -994,14 +1016,15 @@
       <c r="C18" s="6"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7"/>
@@ -1009,29 +1032,31 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
